--- a/Code/Results/Cases/Case_9_37/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_9_37/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.009682908681953</v>
+        <v>1.008969649393389</v>
       </c>
       <c r="D2">
-        <v>1.032774726917037</v>
+        <v>1.031440474033056</v>
       </c>
       <c r="E2">
-        <v>1.02507688487652</v>
+        <v>1.024398521743727</v>
       </c>
       <c r="F2">
-        <v>1.036527502303671</v>
+        <v>1.035689371329704</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.053152661703828</v>
+        <v>1.052475098140834</v>
       </c>
       <c r="J2">
-        <v>1.031577813017627</v>
+        <v>1.030885350038462</v>
       </c>
       <c r="K2">
-        <v>1.04379558743599</v>
+        <v>1.042478503968872</v>
       </c>
       <c r="L2">
-        <v>1.036197573076831</v>
+        <v>1.035528097278572</v>
       </c>
       <c r="M2">
-        <v>1.047500367459732</v>
+        <v>1.046672917904649</v>
       </c>
       <c r="N2">
-        <v>1.014403427265673</v>
+        <v>1.015372330708545</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.046165723244276</v>
+        <v>1.045510857203475</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.042037555199096</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.04111500654632</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.023359178396338</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.013260456467855</v>
+        <v>1.012413318566908</v>
       </c>
       <c r="D3">
-        <v>1.035262637794581</v>
+        <v>1.03375260227901</v>
       </c>
       <c r="E3">
-        <v>1.027836149592945</v>
+        <v>1.02703754964763</v>
       </c>
       <c r="F3">
-        <v>1.039193623389679</v>
+        <v>1.038230858987803</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.053926457155922</v>
+        <v>1.053158843043707</v>
       </c>
       <c r="J3">
-        <v>1.033396041588119</v>
+        <v>1.032571210528624</v>
       </c>
       <c r="K3">
-        <v>1.045463363538168</v>
+        <v>1.043971085575535</v>
       </c>
       <c r="L3">
-        <v>1.038124831857277</v>
+        <v>1.037335784172498</v>
       </c>
       <c r="M3">
-        <v>1.04934842122225</v>
+        <v>1.048396865567901</v>
       </c>
       <c r="N3">
-        <v>1.015013904134655</v>
+        <v>1.015821944299921</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.047628321058817</v>
+        <v>1.046875235526636</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.043214154715406</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.042167453354299</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.023655011522074</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.015536381809949</v>
+        <v>1.014604913543412</v>
       </c>
       <c r="D4">
-        <v>1.036846440050627</v>
+        <v>1.035225178235302</v>
       </c>
       <c r="E4">
-        <v>1.029597208737757</v>
+        <v>1.028722745746666</v>
       </c>
       <c r="F4">
-        <v>1.040895117988023</v>
+        <v>1.039853617766271</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.054404882132453</v>
+        <v>1.053580172624891</v>
       </c>
       <c r="J4">
-        <v>1.034550845199234</v>
+        <v>1.033642261381371</v>
       </c>
       <c r="K4">
-        <v>1.046519604934018</v>
+        <v>1.044916271509328</v>
       </c>
       <c r="L4">
-        <v>1.039351077272488</v>
+        <v>1.038486444113104</v>
       </c>
       <c r="M4">
-        <v>1.050523810868236</v>
+        <v>1.049493710193571</v>
       </c>
       <c r="N4">
-        <v>1.015401679148654</v>
+        <v>1.016107664248562</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.048558553490357</v>
+        <v>1.047743306406795</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.043961891720893</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.042836747857993</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.023839904124717</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.016486632738204</v>
+        <v>1.015520152383541</v>
       </c>
       <c r="D5">
-        <v>1.037509523892771</v>
+        <v>1.035842042847258</v>
       </c>
       <c r="E5">
-        <v>1.03033423677527</v>
+        <v>1.029428252320234</v>
       </c>
       <c r="F5">
-        <v>1.041607234799395</v>
+        <v>1.040533022432638</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.054602444696296</v>
+        <v>1.053753981981106</v>
       </c>
       <c r="J5">
-        <v>1.035033706354362</v>
+        <v>1.034090268123984</v>
       </c>
       <c r="K5">
-        <v>1.046961581367473</v>
+        <v>1.045312054156052</v>
       </c>
       <c r="L5">
-        <v>1.039864057798077</v>
+        <v>1.038967986768264</v>
       </c>
       <c r="M5">
-        <v>1.051015471033554</v>
+        <v>1.049952705504137</v>
       </c>
       <c r="N5">
-        <v>1.0155641736796</v>
+        <v>1.016227454729478</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.048947665157162</v>
+        <v>1.048106566728457</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.044281532414432</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.043124437297754</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.023917111803394</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.016648729508588</v>
+        <v>1.015676295883439</v>
       </c>
       <c r="D6">
-        <v>1.037624580483504</v>
+        <v>1.035949322015047</v>
       </c>
       <c r="E6">
-        <v>1.030460533351853</v>
+        <v>1.029549189970791</v>
       </c>
       <c r="F6">
-        <v>1.041729320404648</v>
+        <v>1.040649577698876</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.054637382836999</v>
+        <v>1.05378492164532</v>
       </c>
       <c r="J6">
-        <v>1.035117483787461</v>
+        <v>1.034168116188133</v>
       </c>
       <c r="K6">
-        <v>1.047039510670224</v>
+        <v>1.045382208037774</v>
       </c>
       <c r="L6">
-        <v>1.039952751376427</v>
+        <v>1.039051334477148</v>
       </c>
       <c r="M6">
-        <v>1.051100553679753</v>
+        <v>1.050032264457031</v>
       </c>
       <c r="N6">
-        <v>1.015592785007066</v>
+        <v>1.016248587505065</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.049015001586762</v>
+        <v>1.048169531647355</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.044345328447001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.043183604574492</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.023931226554139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.015557336766531</v>
+        <v>1.014632285266422</v>
       </c>
       <c r="D7">
-        <v>1.036866203105764</v>
+        <v>1.035249130863457</v>
       </c>
       <c r="E7">
-        <v>1.029614782515266</v>
+        <v>1.028745648206472</v>
       </c>
       <c r="F7">
-        <v>1.040912237256346</v>
+        <v>1.039874982302758</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.054413076778043</v>
+        <v>1.053590495013161</v>
       </c>
       <c r="J7">
-        <v>1.034565337682388</v>
+        <v>1.033663003242004</v>
       </c>
       <c r="K7">
-        <v>1.04653629073079</v>
+        <v>1.044937093669398</v>
       </c>
       <c r="L7">
-        <v>1.039365567683228</v>
+        <v>1.038506199575032</v>
       </c>
       <c r="M7">
-        <v>1.050537898640093</v>
+        <v>1.049511992477214</v>
       </c>
       <c r="N7">
-        <v>1.015407691459856</v>
+        <v>1.016139933910446</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.048569702894296</v>
+        <v>1.047757775464862</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.043993688101138</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.042873468331521</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.023845733309654</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.010910308720988</v>
+        <v>1.010172948374411</v>
       </c>
       <c r="D8">
-        <v>1.03363423680992</v>
+        <v>1.032255046377242</v>
       </c>
       <c r="E8">
-        <v>1.026024016293891</v>
+        <v>1.025322716533434</v>
       </c>
       <c r="F8">
-        <v>1.037442764002404</v>
+        <v>1.036576788354513</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.053425540112561</v>
+        <v>1.052724915417404</v>
       </c>
       <c r="J8">
-        <v>1.032206691337081</v>
+        <v>1.031490114942836</v>
       </c>
       <c r="K8">
-        <v>1.044377098089075</v>
+        <v>1.043015133182074</v>
       </c>
       <c r="L8">
-        <v>1.036862646793163</v>
+        <v>1.036170261733087</v>
       </c>
       <c r="M8">
-        <v>1.04813835444776</v>
+        <v>1.047283089161265</v>
       </c>
       <c r="N8">
-        <v>1.014616044523452</v>
+        <v>1.015613364289821</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.046670643068083</v>
+        <v>1.045993763356817</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.042471521020128</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.041519505237515</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.023469107895503</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.002397866158586</v>
+        <v>1.001987518228273</v>
       </c>
       <c r="D9">
-        <v>1.027716393103275</v>
+        <v>1.026761051647789</v>
       </c>
       <c r="E9">
-        <v>1.019490899103436</v>
+        <v>1.019082229892085</v>
       </c>
       <c r="F9">
-        <v>1.031129560919403</v>
+        <v>1.030565607239976</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.051503427091252</v>
+        <v>1.051019234638493</v>
       </c>
       <c r="J9">
-        <v>1.027866232816786</v>
+        <v>1.027470286795373</v>
       </c>
       <c r="K9">
-        <v>1.040375244982834</v>
+        <v>1.039434373447372</v>
       </c>
       <c r="L9">
-        <v>1.03227547143835</v>
+        <v>1.031873116007749</v>
       </c>
       <c r="M9">
-        <v>1.043736994581727</v>
+        <v>1.043181506774815</v>
       </c>
       <c r="N9">
-        <v>1.013157728037471</v>
+        <v>1.014550279150036</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.043187283060097</v>
+        <v>1.042747653203503</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.039638807499814</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.038984252842994</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.022744514693073</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.996546390471936</v>
+        <v>0.9963956781185437</v>
       </c>
       <c r="D10">
-        <v>1.023673068821642</v>
+        <v>1.023032638912571</v>
       </c>
       <c r="E10">
-        <v>1.015055966183808</v>
+        <v>1.014876655157402</v>
       </c>
       <c r="F10">
-        <v>1.026875597427806</v>
+        <v>1.026542504517655</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.050126415166642</v>
+        <v>1.049802310112693</v>
       </c>
       <c r="J10">
-        <v>1.024897705391585</v>
+        <v>1.024753032821179</v>
       </c>
       <c r="K10">
-        <v>1.037627660676273</v>
+        <v>1.036998122535696</v>
       </c>
       <c r="L10">
-        <v>1.029158599345219</v>
+        <v>1.028982403431644</v>
       </c>
       <c r="M10">
-        <v>1.04077598690966</v>
+        <v>1.040448511224766</v>
       </c>
       <c r="N10">
-        <v>1.012166019314325</v>
+        <v>1.013946527405316</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.040895136905046</v>
+        <v>1.040635978020164</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.037712858539985</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.03728011630391</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.022245497415978</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9943447969987861</v>
+        <v>0.9943239284664911</v>
       </c>
       <c r="D11">
-        <v>1.022264818979327</v>
+        <v>1.021761640260896</v>
       </c>
       <c r="E11">
-        <v>1.01357159560304</v>
+        <v>1.013502502925547</v>
       </c>
       <c r="F11">
-        <v>1.025706712076079</v>
+        <v>1.025481074887257</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.049692589132209</v>
+        <v>1.049438100231164</v>
       </c>
       <c r="J11">
-        <v>1.023954746268533</v>
+        <v>1.023934760048977</v>
       </c>
       <c r="K11">
-        <v>1.03677872325353</v>
+        <v>1.03628451054389</v>
       </c>
       <c r="L11">
-        <v>1.028242030974656</v>
+        <v>1.028174196384461</v>
       </c>
       <c r="M11">
-        <v>1.040159592045818</v>
+        <v>1.039937939103244</v>
       </c>
       <c r="N11">
-        <v>1.011893467719389</v>
+        <v>1.013987006341373</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.040842352679478</v>
+        <v>1.040667027892116</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.03714537139806</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.036811526601965</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.02213065347065</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9936511534246434</v>
+        <v>0.9936709772852975</v>
       </c>
       <c r="D12">
-        <v>1.021861794467636</v>
+        <v>1.021400367784344</v>
       </c>
       <c r="E12">
-        <v>1.013177032000024</v>
+        <v>1.01314105651111</v>
       </c>
       <c r="F12">
-        <v>1.02551665494896</v>
+        <v>1.025324378517036</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.049590480328273</v>
+        <v>1.049357159778934</v>
       </c>
       <c r="J12">
-        <v>1.02372665966913</v>
+        <v>1.023745629194057</v>
       </c>
       <c r="K12">
-        <v>1.036581809516432</v>
+        <v>1.036128742893569</v>
       </c>
       <c r="L12">
-        <v>1.028056061447618</v>
+        <v>1.028020752047573</v>
       </c>
       <c r="M12">
-        <v>1.040170797069044</v>
+        <v>1.039981970903192</v>
       </c>
       <c r="N12">
-        <v>1.011849869449785</v>
+        <v>1.014060405442478</v>
       </c>
       <c r="O12">
-        <v>1.03</v>
+        <v>1.029999999999999</v>
       </c>
       <c r="P12">
-        <v>1.041176795005099</v>
+        <v>1.04102748611218</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.037006147769063</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.036701396632812</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.022119186505577</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9940850203221039</v>
+        <v>0.994069208738077</v>
       </c>
       <c r="D13">
-        <v>1.02222210681372</v>
+        <v>1.021724333930318</v>
       </c>
       <c r="E13">
-        <v>1.013607588130834</v>
+        <v>1.013539254175364</v>
       </c>
       <c r="F13">
-        <v>1.026086952240401</v>
+        <v>1.02586630869366</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.049750948452787</v>
+        <v>1.049499234652095</v>
       </c>
       <c r="J13">
-        <v>1.024048294303517</v>
+        <v>1.024033160833374</v>
       </c>
       <c r="K13">
-        <v>1.036892952720482</v>
+        <v>1.036404160470282</v>
       </c>
       <c r="L13">
-        <v>1.028435475875713</v>
+        <v>1.028368401549209</v>
       </c>
       <c r="M13">
-        <v>1.040688454972541</v>
+        <v>1.040471751958549</v>
       </c>
       <c r="N13">
-        <v>1.01198608647868</v>
+        <v>1.014133234224218</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.041862139514649</v>
+        <v>1.041690830692818</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.037223649558726</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.036893393071138</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.022191780390177</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9949000463254318</v>
+        <v>0.9948256207158589</v>
       </c>
       <c r="D14">
-        <v>1.02282124342892</v>
+        <v>1.022263309649302</v>
       </c>
       <c r="E14">
-        <v>1.014282767081311</v>
+        <v>1.014163106999031</v>
       </c>
       <c r="F14">
-        <v>1.026830926919067</v>
+        <v>1.026563193930331</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.04998245311898</v>
+        <v>1.04970026956746</v>
       </c>
       <c r="J14">
-        <v>1.02452249897221</v>
+        <v>1.02445121978313</v>
       </c>
       <c r="K14">
-        <v>1.037341668308991</v>
+        <v>1.036793675804323</v>
       </c>
       <c r="L14">
-        <v>1.02895688837525</v>
+        <v>1.028839406157387</v>
       </c>
       <c r="M14">
-        <v>1.041280319211066</v>
+        <v>1.041017306765696</v>
       </c>
       <c r="N14">
-        <v>1.012162946466636</v>
+        <v>1.014185436053348</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.042502958495208</v>
+        <v>1.042295068962411</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.037542324819623</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.037170345148819</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.022281121381529</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9953486700153255</v>
+        <v>0.9952436869011525</v>
       </c>
       <c r="D15">
-        <v>1.023140166354259</v>
+        <v>1.022550637893175</v>
       </c>
       <c r="E15">
-        <v>1.014634179057856</v>
+        <v>1.01448806944282</v>
       </c>
       <c r="F15">
-        <v>1.027189557256602</v>
+        <v>1.026897087122376</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.05009948308124</v>
+        <v>1.049801289601139</v>
       </c>
       <c r="J15">
-        <v>1.024763969476526</v>
+        <v>1.024663385967742</v>
       </c>
       <c r="K15">
-        <v>1.037568920465958</v>
+        <v>1.03698981657927</v>
       </c>
       <c r="L15">
-        <v>1.02921486943502</v>
+        <v>1.029071398608791</v>
       </c>
       <c r="M15">
-        <v>1.041547125267279</v>
+        <v>1.041259772232212</v>
       </c>
       <c r="N15">
-        <v>1.01224780088732</v>
+        <v>1.014202925464133</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.042751305104296</v>
+        <v>1.042524182315996</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.037708851303813</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.03731544331028</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.022323608282539</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9977470765863565</v>
+        <v>0.9974916944322569</v>
       </c>
       <c r="D16">
-        <v>1.02479358235955</v>
+        <v>1.024044511353258</v>
       </c>
       <c r="E16">
-        <v>1.016435603504628</v>
+        <v>1.0161599830579</v>
       </c>
       <c r="F16">
-        <v>1.028908459948861</v>
+        <v>1.028491941510803</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.05067477557713</v>
+        <v>1.050295659314552</v>
       </c>
       <c r="J16">
-        <v>1.02597329395595</v>
+        <v>1.025728080179761</v>
       </c>
       <c r="K16">
-        <v>1.038693752811282</v>
+        <v>1.037957349931102</v>
       </c>
       <c r="L16">
-        <v>1.030478490755487</v>
+        <v>1.030207628390132</v>
       </c>
       <c r="M16">
-        <v>1.042739464431252</v>
+        <v>1.042329914702402</v>
       </c>
       <c r="N16">
-        <v>1.012646788869246</v>
+        <v>1.014275743889846</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.043655093116531</v>
+        <v>1.04333137728348</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.038507298311794</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.038002971660003</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.022521463177016</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9991612096149428</v>
+        <v>0.9988288036898376</v>
       </c>
       <c r="D17">
-        <v>1.02574838289457</v>
+        <v>1.024913762049819</v>
       </c>
       <c r="E17">
-        <v>1.017464856885508</v>
+        <v>1.017122800702513</v>
       </c>
       <c r="F17">
-        <v>1.029833980896983</v>
+        <v>1.029351994056577</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.050991062962007</v>
+        <v>1.050568492238342</v>
       </c>
       <c r="J17">
-        <v>1.026651659505019</v>
+        <v>1.026332063763722</v>
       </c>
       <c r="K17">
-        <v>1.039319524843126</v>
+        <v>1.038498622661993</v>
       </c>
       <c r="L17">
-        <v>1.031173440054747</v>
+        <v>1.030837121354745</v>
       </c>
       <c r="M17">
-        <v>1.043338379994639</v>
+        <v>1.042864231541205</v>
       </c>
       <c r="N17">
-        <v>1.012859869959629</v>
+        <v>1.014332703355743</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.043999754275653</v>
+        <v>1.043624941168976</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.038952317546926</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.038388493199004</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.022626443656271</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9998504616880669</v>
+        <v>0.9994884413341268</v>
       </c>
       <c r="D18">
-        <v>1.026173417581242</v>
+        <v>1.025303554526732</v>
       </c>
       <c r="E18">
-        <v>1.017904092887727</v>
+        <v>1.017536862668725</v>
       </c>
       <c r="F18">
-        <v>1.030127319428401</v>
+        <v>1.029618696878802</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.051107703421968</v>
+        <v>1.050667195963064</v>
       </c>
       <c r="J18">
-        <v>1.026919119590981</v>
+        <v>1.02657078867948</v>
       </c>
       <c r="K18">
-        <v>1.03955515627494</v>
+        <v>1.038699356371056</v>
       </c>
       <c r="L18">
-        <v>1.031420772766028</v>
+        <v>1.031059600559332</v>
       </c>
       <c r="M18">
-        <v>1.04344551882951</v>
+        <v>1.042945034785479</v>
       </c>
       <c r="N18">
-        <v>1.012925136502459</v>
+        <v>1.014338407028325</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.043847396327522</v>
+        <v>1.043451682891373</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.039107321311344</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.038517687246697</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.022653985896083</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9998852874528339</v>
+        <v>0.9995322562786738</v>
       </c>
       <c r="D19">
-        <v>1.026125307979101</v>
+        <v>1.025263407996788</v>
       </c>
       <c r="E19">
-        <v>1.017808398641113</v>
+        <v>1.017450038375144</v>
       </c>
       <c r="F19">
-        <v>1.029847484094542</v>
+        <v>1.029344955875994</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.05104952552765</v>
+        <v>1.050613022048962</v>
       </c>
       <c r="J19">
-        <v>1.02681797660539</v>
+        <v>1.026478215408024</v>
       </c>
       <c r="K19">
-        <v>1.039445613618121</v>
+        <v>1.038597575316614</v>
       </c>
       <c r="L19">
-        <v>1.031263722355346</v>
+        <v>1.030911243556915</v>
       </c>
       <c r="M19">
-        <v>1.04310826853556</v>
+        <v>1.042613744016583</v>
       </c>
       <c r="N19">
-        <v>1.012860835666369</v>
+        <v>1.014281214064082</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.043256224865663</v>
+        <v>1.042865096315319</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.039036243096384</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.038452721457703</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.022613079375642</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9980826598681407</v>
+        <v>0.9978433360587643</v>
       </c>
       <c r="D20">
-        <v>1.024746052499689</v>
+        <v>1.024009485280689</v>
       </c>
       <c r="E20">
-        <v>1.016222451004855</v>
+        <v>1.015965769272302</v>
       </c>
       <c r="F20">
-        <v>1.027995996017999</v>
+        <v>1.027588677122271</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.050501639998449</v>
+        <v>1.050128741662545</v>
       </c>
       <c r="J20">
-        <v>1.025687692363968</v>
+        <v>1.025457647373488</v>
       </c>
       <c r="K20">
-        <v>1.038367294754758</v>
+        <v>1.037642897977112</v>
       </c>
       <c r="L20">
-        <v>1.029985922419705</v>
+        <v>1.02973357156096</v>
       </c>
       <c r="M20">
-        <v>1.041563806549464</v>
+        <v>1.04116316049075</v>
       </c>
       <c r="N20">
-        <v>1.012433443003413</v>
+        <v>1.014037557750486</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.041508092874007</v>
+        <v>1.041191024372786</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.038277742995162</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.037782032057645</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.022380092591849</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9936173979113246</v>
+        <v>0.9936780341116939</v>
       </c>
       <c r="D21">
-        <v>1.021640841664673</v>
+        <v>1.021215369554659</v>
       </c>
       <c r="E21">
-        <v>1.012815557504308</v>
+        <v>1.012819758423649</v>
       </c>
       <c r="F21">
-        <v>1.024678249855139</v>
+        <v>1.024516258803978</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.049406579609131</v>
+        <v>1.049191410039382</v>
       </c>
       <c r="J21">
-        <v>1.023384418328628</v>
+        <v>1.023442472913163</v>
       </c>
       <c r="K21">
-        <v>1.036223501835746</v>
+        <v>1.035805657096347</v>
       </c>
       <c r="L21">
-        <v>1.027558135923613</v>
+        <v>1.027562259856935</v>
       </c>
       <c r="M21">
-        <v>1.039206697707535</v>
+        <v>1.039047587376217</v>
       </c>
       <c r="N21">
-        <v>1.011655945981604</v>
+        <v>1.01391549918548</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.039601861264669</v>
+        <v>1.039475935937267</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.036765230619302</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.036486595161052</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.0219994366832</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9907727436438153</v>
+        <v>0.9910229883358691</v>
       </c>
       <c r="D22">
-        <v>1.019668006113241</v>
+        <v>1.019439168771425</v>
       </c>
       <c r="E22">
-        <v>1.010662614073063</v>
+        <v>1.010831680138032</v>
       </c>
       <c r="F22">
-        <v>1.022597945698996</v>
+        <v>1.022591077082441</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.048698420349863</v>
+        <v>1.048582770196823</v>
       </c>
       <c r="J22">
-        <v>1.021923341446676</v>
+        <v>1.022162311334313</v>
       </c>
       <c r="K22">
-        <v>1.034859652078244</v>
+        <v>1.034635123760723</v>
       </c>
       <c r="L22">
-        <v>1.026025761071091</v>
+        <v>1.02619157053402</v>
       </c>
       <c r="M22">
-        <v>1.037734643110773</v>
+        <v>1.037727902828758</v>
       </c>
       <c r="N22">
-        <v>1.011163856607804</v>
+        <v>1.013831564249685</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.038436826349729</v>
+        <v>1.038431491853089</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.035787464245056</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.035644214123522</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.021755316184654</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9922787534554263</v>
+        <v>0.9924171483896341</v>
       </c>
       <c r="D23">
-        <v>1.02070815696954</v>
+        <v>1.020367066118014</v>
       </c>
       <c r="E23">
-        <v>1.011800360729841</v>
+        <v>1.011872488172174</v>
       </c>
       <c r="F23">
-        <v>1.023697471417485</v>
+        <v>1.023600612833986</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.049071833640616</v>
+        <v>1.048899391754402</v>
       </c>
       <c r="J23">
-        <v>1.02269377182798</v>
+        <v>1.022826114266474</v>
       </c>
       <c r="K23">
-        <v>1.035576669031762</v>
+        <v>1.035241837126606</v>
       </c>
       <c r="L23">
-        <v>1.026834136280831</v>
+        <v>1.026904910307453</v>
       </c>
       <c r="M23">
-        <v>1.038511362399124</v>
+        <v>1.038416267118261</v>
       </c>
       <c r="N23">
-        <v>1.011422094687922</v>
+        <v>1.013831587829672</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.039051549091208</v>
+        <v>1.03897628739677</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.036284811102608</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.036062627747301</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.021880360515997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9981067864830477</v>
+        <v>0.9978677243217952</v>
       </c>
       <c r="D24">
-        <v>1.024745618817746</v>
+        <v>1.024008699739843</v>
       </c>
       <c r="E24">
-        <v>1.016221399738197</v>
+        <v>1.015965154095627</v>
       </c>
       <c r="F24">
-        <v>1.027969831611766</v>
+        <v>1.027562461540019</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.050493264619566</v>
+        <v>1.050120182084797</v>
       </c>
       <c r="J24">
-        <v>1.025677909386339</v>
+        <v>1.02544810223858</v>
       </c>
       <c r="K24">
-        <v>1.038351676148342</v>
+        <v>1.037626917755066</v>
       </c>
       <c r="L24">
-        <v>1.029969514486219</v>
+        <v>1.029717586819957</v>
       </c>
       <c r="M24">
-        <v>1.041522946319774</v>
+        <v>1.041122241824217</v>
       </c>
       <c r="N24">
-        <v>1.012424512049044</v>
+        <v>1.014027078043339</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.041435016695693</v>
+        <v>1.041117886295043</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.038239383024427</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.03774074342994</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.022372214037553</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.004649838661477</v>
+        <v>1.004143275606371</v>
       </c>
       <c r="D25">
-        <v>1.029287933610683</v>
+        <v>1.028214177541532</v>
       </c>
       <c r="E25">
-        <v>1.021215718933904</v>
+        <v>1.020721590066302</v>
       </c>
       <c r="F25">
-        <v>1.032796313541044</v>
+        <v>1.032146062327</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.052029569189165</v>
+        <v>1.051485041157597</v>
       </c>
       <c r="J25">
-        <v>1.029021724125693</v>
+        <v>1.028532002040023</v>
       </c>
       <c r="K25">
-        <v>1.041447989647216</v>
+        <v>1.040389742212589</v>
       </c>
       <c r="L25">
-        <v>1.033493379316374</v>
+        <v>1.033006526156141</v>
       </c>
       <c r="M25">
-        <v>1.044905981393502</v>
+        <v>1.044265036502037</v>
       </c>
       <c r="N25">
-        <v>1.013547864522134</v>
+        <v>1.014802018084161</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.04411245372361</v>
+        <v>1.043605191165481</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.040425767528979</v>
+        <v>1.039691024788076</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.022941238074713</v>
       </c>
     </row>
   </sheetData>
